--- a/设备清单.xlsx
+++ b/设备清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3D-tank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3dtank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>GA12-N20减速马达</t>
   </si>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>光线传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -420,6 +424,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
